--- a/nordson.omu/src/test/java/com/nordson/testData/MDS-Flow_06 Feb 2021.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/MDS-Flow_06 Feb 2021.xlsx
@@ -746,8 +746,7 @@
     <t>ATSKFactor</t>
   </si>
   <si>
-    <t>Calibration Constant Setting 
-(K-Factor)</t>
+    <t>Calibration Constant Setting (K-Factor)</t>
   </si>
   <si>
     <t>A calibration factor used to fine-tune the flow meter output.</t>
@@ -819,7 +818,7 @@
     <t>-.05 x taught target_add_on</t>
   </si>
   <si>
-    <t>-.9 x target_add_on</t>
+    <t>-.9 x targe_add_on</t>
   </si>
   <si>
     <t>AFM.11</t>
@@ -840,7 +839,7 @@
     <t>+.05 x taught target_add_on</t>
   </si>
   <si>
-    <t>+10 x target_add_on</t>
+    <t>+10 x targe_add_on</t>
   </si>
   <si>
     <t>AFM.12</t>
@@ -2424,13 +2423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249880000948906"/>
+        <fgColor theme="2" tint="-0.249929994344711"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249850004911423"/>
+        <fgColor theme="2" tint="-0.249899998307228"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2454,7 +2453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0498900003731251"/>
+        <fgColor theme="0" tint="-0.049940001219511"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3958,6 +3957,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -3971,7 +3971,7 @@
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14428571428571" defaultRowHeight="14.45"/>
@@ -6141,6 +6141,7 @@
       <c r="S57" s="101"/>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M41:Q41">
       <formula1>#REF!</formula1>
@@ -9080,6 +9081,7 @@
       <c r="T80" s="101"/>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId2"/>
